--- a/cv-log.xlsx
+++ b/cv-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Admin\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C4CCC1-36DE-49E1-8936-30A3B235B672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246D69F-681C-4A3F-8DC7-C48420AC44CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -158,19 +158,253 @@
     <t>Details</t>
   </si>
   <si>
-    <t>PhD, Clinical Nutrition</t>
-  </si>
-  <si>
-    <t>Oslo University Hospital; University of Oslo</t>
-  </si>
-  <si>
     <t>Oslo, Norway</t>
   </si>
   <si>
-    <t>- Thesis: bla-bla-bla</t>
-  </si>
-  <si>
     <t>4/2014 - 8/2017</t>
+  </si>
+  <si>
+    <t>Date_start</t>
+  </si>
+  <si>
+    <t>Date_end</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>University education</t>
+  </si>
+  <si>
+    <t>Post graduate education</t>
+  </si>
+  <si>
+    <t>Doctoral degree (PhD)</t>
+  </si>
+  <si>
+    <t>Oslo University Hospital and University of Oslo</t>
+  </si>
+  <si>
+    <t>07/2013 - 12/2061</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Norwegian Directorate of Health, Registration Authority for Health Personnel (SAFH)</t>
+  </si>
+  <si>
+    <t>Master Thesis</t>
+  </si>
+  <si>
+    <t>08/2012 - 06/2013</t>
+  </si>
+  <si>
+    <t>University of Oslo</t>
+  </si>
+  <si>
+    <t>08/2011 - 06/2013</t>
+  </si>
+  <si>
+    <t>Master of Clinical Nutrition</t>
+  </si>
+  <si>
+    <t>08/2008 - 06/2011</t>
+  </si>
+  <si>
+    <t>Bachelor of Science</t>
+  </si>
+  <si>
+    <t>University of Oslo and University of Stellenbosch</t>
+  </si>
+  <si>
+    <t>Primary education (schooling)</t>
+  </si>
+  <si>
+    <t>Specialization in Science and General Studies</t>
+  </si>
+  <si>
+    <t>Bjørknes Private Upper Secondary School</t>
+  </si>
+  <si>
+    <t>08/2002 - 06/2005</t>
+  </si>
+  <si>
+    <t>08/2007 - 06/2008</t>
+  </si>
+  <si>
+    <t>Physical Education and Sports</t>
+  </si>
+  <si>
+    <t>Asker Upper Secondary School</t>
+  </si>
+  <si>
+    <t>Asker, Norway</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>2014 - 2017</t>
+  </si>
+  <si>
+    <t>2013 - 2061</t>
+  </si>
+  <si>
+    <t>2012 - 2013</t>
+  </si>
+  <si>
+    <t>2011 - 2013</t>
+  </si>
+  <si>
+    <t>2008 - 2011</t>
+  </si>
+  <si>
+    <t>2007 - 2008</t>
+  </si>
+  <si>
+    <t>2002 - 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisors: Prof. Kirsten B. Holven (main supervisor), PhD, Prof. Kjetil Retterstøl, MD, PhD, and Prof. Leiv Ose, MD, PhD. Title of doctoral thesis: Early life cholesterol exposure in children with familial hypercholesterolemia and healthy children (approved 30.05.2017, defended 21.08.2017). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorized Clinical Dietitian (License: 6182046). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisors: Christian A. Drevon (main supervisor) and Anders Kielland. Title of master thesis: Differentiation of skeletal muscle cells in culture – Experimental conditions and expression of myokines. </t>
+  </si>
+  <si>
+    <t>Oslo, Norway, and Cape Town, South Africa</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Postdoctoral researcher</t>
+  </si>
+  <si>
+    <t>07/2018 - Present</t>
+  </si>
+  <si>
+    <t>2018 - Present</t>
+  </si>
+  <si>
+    <t>Department of Nutrition, Institute of Basic Medical Sciences, University of Oslo</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>09/2017 - 07/2018</t>
+  </si>
+  <si>
+    <t>2017 - 2018</t>
+  </si>
+  <si>
+    <t>07/2013 - Present</t>
+  </si>
+  <si>
+    <t>2013 - Present</t>
+  </si>
+  <si>
+    <t>Clinical Dietitian (kef)</t>
+  </si>
+  <si>
+    <t>Lommelegen (lommelegen.no), Aller Media AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I answer questions related to related to clinical dietetics, nutrition, physical activity and health. </t>
+  </si>
+  <si>
+    <t>09/2016 - 11/2016</t>
+  </si>
+  <si>
+    <t>University Lecturer</t>
+  </si>
+  <si>
+    <t>Clinical communication skills, teaching for under-graduate students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had responsibility for data analysis-centered research projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Education and authorization. </t>
+  </si>
+  <si>
+    <t>University College Lecturer/Project Coordinator</t>
+  </si>
+  <si>
+    <t>Lecturer/Nutritionist</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Diver</t>
+  </si>
+  <si>
+    <t>08/2013 - 04/2014</t>
+  </si>
+  <si>
+    <t>01/2012 - 06/2013</t>
+  </si>
+  <si>
+    <t>11/2011 - 06/2013</t>
+  </si>
+  <si>
+    <t>05/2009 - 08/2012</t>
+  </si>
+  <si>
+    <t>07/2006 - 06/2007</t>
+  </si>
+  <si>
+    <t>2013 - 2014</t>
+  </si>
+  <si>
+    <t>2009 - 2012</t>
+  </si>
+  <si>
+    <t>2006 - 2007</t>
+  </si>
+  <si>
+    <t>Oslo and Akershus University College and University of Oslo</t>
+  </si>
+  <si>
+    <t>Student Welfare Organization in Oslo (SiO)</t>
+  </si>
+  <si>
+    <t>Weekly dietary counseling sessions for healthy subjects, as well as lectures about general nutrition topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordination and implementation of practical aspects of a clinical nutrition research study. </t>
+  </si>
+  <si>
+    <t>The Sleep Laboratory, Lovisenberg Diakonale Sykehus (LDS)</t>
+  </si>
+  <si>
+    <t>Examination of individuals with sleep disorders (using polysomnography).</t>
+  </si>
+  <si>
+    <t>Naval Home Guard (Sjøheimevernet, SHV)</t>
+  </si>
+  <si>
+    <t>Karljohansvern, Horten, Norway</t>
+  </si>
+  <si>
+    <t>The Norwegian Navy, Haakonsvern</t>
+  </si>
+  <si>
+    <t>Bergen, Norway</t>
+  </si>
+  <si>
+    <t>Military service, diver for the Coast Guard KV Ålesund.</t>
+  </si>
+  <si>
+    <t>Diver for the SHV task force at the eastern part of Norway.</t>
+  </si>
+  <si>
+    <t>Other Positions</t>
   </si>
 </sst>
 </file>
@@ -206,9 +440,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,88 +732,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="98.5546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41730</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42948</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41456</v>
+      </c>
+      <c r="D4" s="4">
+        <v>59141</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41122</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41426</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40756</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41426</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4">
+        <v>39661</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40695</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4">
+        <v>39295</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4">
+        <v>37469</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38504</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="52.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42979</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41730</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42948</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42614</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41487</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40909</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40848</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1">
+        <v>39934</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>38899</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1108,18 +1859,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,14 +1893,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343284B-DAC8-4E8C-A531-8BA424A02C88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1164,4 +1907,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cv-log.xlsx
+++ b/cv-log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Admin\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5246D69F-681C-4A3F-8DC7-C48420AC44CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="851" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="7" r:id="rId1"/>
@@ -18,8 +17,8 @@
     <sheet name="editoral-activities" sheetId="11" r:id="rId3"/>
     <sheet name="service-activities" sheetId="14" r:id="rId4"/>
     <sheet name="educational-activities" sheetId="12" r:id="rId5"/>
-    <sheet name="awards" sheetId="10" r:id="rId6"/>
-    <sheet name="grants" sheetId="13" r:id="rId7"/>
+    <sheet name="grants" sheetId="13" r:id="rId6"/>
+    <sheet name="awards" sheetId="16" r:id="rId7"/>
     <sheet name="publications" sheetId="1" r:id="rId8"/>
     <sheet name="presentations" sheetId="3" r:id="rId9"/>
   </sheets>
@@ -33,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>Invited presentation</t>
   </si>
@@ -47,30 +40,15 @@
     <t>Seminars</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>Co-Investigator</t>
   </si>
   <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>principal-investigator</t>
-  </si>
-  <si>
     <t>Current Grant Support</t>
   </si>
   <si>
     <t>Previous Grant Support</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>source-funder</t>
-  </si>
-  <si>
     <t>Co-Principal Investigator</t>
   </si>
   <si>
@@ -89,30 +67,15 @@
     <t>Review of Proposals</t>
   </si>
   <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>Book Chapters</t>
-  </si>
-  <si>
     <t>Journal Articles</t>
   </si>
   <si>
-    <t>Editorials</t>
-  </si>
-  <si>
-    <t>Letters</t>
-  </si>
-  <si>
     <t>Preprints</t>
   </si>
   <si>
     <t>Popular Science</t>
   </si>
   <si>
-    <t>Lommelegen</t>
-  </si>
-  <si>
     <t>Master's Supervisor</t>
   </si>
   <si>
@@ -125,12 +88,6 @@
     <t>Master Thesis Defenses</t>
   </si>
   <si>
-    <t>university</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>Lectures</t>
   </si>
   <si>
@@ -140,9 +97,6 @@
     <t>Posters</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -314,9 +268,6 @@
     <t>Lommelegen (lommelegen.no), Aller Media AS</t>
   </si>
   <si>
-    <t xml:space="preserve">I answer questions related to related to clinical dietetics, nutrition, physical activity and health. </t>
-  </si>
-  <si>
     <t>09/2016 - 11/2016</t>
   </si>
   <si>
@@ -326,9 +277,6 @@
     <t>Clinical communication skills, teaching for under-graduate students.</t>
   </si>
   <si>
-    <t xml:space="preserve">I had responsibility for data analysis-centered research projects. </t>
-  </si>
-  <si>
     <t xml:space="preserve">See Education and authorization. </t>
   </si>
   <si>
@@ -405,16 +353,224 @@
   </si>
   <si>
     <t>Other Positions</t>
+  </si>
+  <si>
+    <t>Post-doctoral researcher</t>
+  </si>
+  <si>
+    <t>04/2014 - 8/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statin use in pregnancy, nutrition data science. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data analysis-centered research projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answering questions related to clinical dietetics, nutrition, physical activity and health. </t>
+  </si>
+  <si>
+    <t>09/2018 - 03/2019</t>
+  </si>
+  <si>
+    <t>2018 - 2019</t>
+  </si>
+  <si>
+    <t>Jean Mayer United States Department of Agriculture (USDA) Human Nutrition Research Center on Aging (HNRCA), Tufts University</t>
+  </si>
+  <si>
+    <t>Boston Massachusetts, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postdoctoral fellowship in the group of José Ordovás, working with various research projects in the intersection of nutrition, genomics and cardio-metabolic diseases. </t>
+  </si>
+  <si>
+    <t>Research visit abroad</t>
+  </si>
+  <si>
+    <t>05/2017</t>
+  </si>
+  <si>
+    <t>Throne-Holst stiftelse: Best article 2016</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Aim</t>
+  </si>
+  <si>
+    <t>Principal-investigator</t>
+  </si>
+  <si>
+    <t>Source-funder</t>
+  </si>
+  <si>
+    <t>Christensen JJ J Clin Lipidol 2016</t>
+  </si>
+  <si>
+    <t>04/2015</t>
+  </si>
+  <si>
+    <t>Mills DA (1 kr til Hjertesaken)</t>
+  </si>
+  <si>
+    <t>Prof. Kirsten B. Holven</t>
+  </si>
+  <si>
+    <t>The STORK children project</t>
+  </si>
+  <si>
+    <t>To examine the long-term effect of in utero hypercholesterolemic, pro-thrombotic and pro-inflammatory environment on risk markers of disease in children 6-12 years after birth.</t>
+  </si>
+  <si>
+    <t>Comprehensive lipid and metabolite profiling of children with and without familial hypercholesterolemia: A cross-sectional study</t>
+  </si>
+  <si>
+    <t>Date_1</t>
+  </si>
+  <si>
+    <t>Date_2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Maternal Inheritance Does Not Predict Cholesterol Levels in Children with Familial Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>Narverud I</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Author_first</t>
+  </si>
+  <si>
+    <t>Journal_abbr</t>
+  </si>
+  <si>
+    <t>Atherosclerosis</t>
+  </si>
+  <si>
+    <t>LDL cholesterol in early pregnancy and offspring cardiovascular disease risk factors</t>
+  </si>
+  <si>
+    <t>Christensen JJ</t>
+  </si>
+  <si>
+    <t>J Clin Lipidol</t>
+  </si>
+  <si>
+    <t>Exchanging a Few Commercial, Regularly Consumed Food Items with Improved Fat Quality Reduces Total Cholesterol and LDL-Cholesterol: A Double-Blind, Randomised Controlled Trial</t>
+  </si>
+  <si>
+    <t>Ulven SM</t>
+  </si>
+  <si>
+    <t>Br J Nutr</t>
+  </si>
+  <si>
+    <t>Data on circulating leukocyte subpopulations and inflammatory proteins in children with familial hypercholesterolemia and healthy children</t>
+  </si>
+  <si>
+    <t>Data Brief</t>
+  </si>
+  <si>
+    <t>Altered leukocyte distribution under hypercholesterolemia: A cross-sectional study in children with familial hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>Gene expression is differentially regulated in skeletal muscle and circulating immune cells in response to an acute bout of high-load strength exercise</t>
+  </si>
+  <si>
+    <t>Gjevestad OG</t>
+  </si>
+  <si>
+    <t>Genes Nutr</t>
+  </si>
+  <si>
+    <t>[Misleading about diet in a new national guideline for the prevention of cardiovascular disease]</t>
+  </si>
+  <si>
+    <t>Tidsskr Nor Laegeforen</t>
+  </si>
+  <si>
+    <t>Does dietary fat affect inflammatory markers in overweight and obese individuals?-a review of randomized controlled trials from 2010 to 2016</t>
+  </si>
+  <si>
+    <t>Telle-Hansen</t>
+  </si>
+  <si>
+    <t>VH</t>
+  </si>
+  <si>
+    <t>Serum Omega-6 Fatty Acids and Immunology-Related Gene Expression in Peripheral Blood Mononuclear Cells: A Cross-Sectional Analysis in Healthy Children</t>
+  </si>
+  <si>
+    <t>Mol Nutr Food Res</t>
+  </si>
+  <si>
+    <t>Profiling of immune‐related gene expression in children with familial hypercholesterolaemia</t>
+  </si>
+  <si>
+    <t>Narverud I &amp; Christensen JJ</t>
+  </si>
+  <si>
+    <t>J Intern Med</t>
+  </si>
+  <si>
+    <t>Using metabolic profiling and gene expression analyses to explore molecular effects of replacing saturated fat with polyunsaturated fat-a randomized controlled dietary intervention study</t>
+  </si>
+  <si>
+    <t>Am J Clin Nutr</t>
+  </si>
+  <si>
+    <t>medRxiv</t>
+  </si>
+  <si>
+    <t>Lommelegen Articles</t>
+  </si>
+  <si>
+    <t>Lommelegen Q&amp;A</t>
+  </si>
+  <si>
+    <t>Associations between dietary patterns and gene expression pattern in peripheral blood mononuclear cells: a cross-sectional study</t>
+  </si>
+  <si>
+    <t>Mangano KM</t>
+  </si>
+  <si>
+    <t>Diet-derived fruit and vegetable metabolites suggest sex-specific mechanisms conferring protection against osteoporosis in humans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -452,11 +608,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -731,65 +910,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C3:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="98.5546875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="98.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43282</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4">
         <v>41730</v>
@@ -797,28 +998,28 @@
       <c r="D3" s="4">
         <v>42948</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>41456</v>
@@ -827,27 +1028,27 @@
         <v>59141</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
         <v>41122</v>
@@ -856,27 +1057,27 @@
         <v>41426</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4">
         <v>40756</v>
@@ -885,24 +1086,24 @@
         <v>41426</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
         <v>39661</v>
@@ -911,24 +1112,24 @@
         <v>40695</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
         <v>39295</v>
@@ -937,24 +1138,24 @@
         <v>39600</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
         <v>37469</v>
@@ -963,16 +1164,16 @@
         <v>38504</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -982,92 +1183,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="52.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43344</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43525</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>43282</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>42979</v>
@@ -1076,53 +1300,53 @@
         <v>43282</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>41456</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>41730</v>
@@ -1131,27 +1355,27 @@
         <v>42948</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <v>42614</v>
@@ -1160,27 +1384,27 @@
         <v>42675</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>2016</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1">
         <v>41487</v>
@@ -1189,27 +1413,27 @@
         <v>41730</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1">
         <v>40909</v>
@@ -1218,27 +1442,27 @@
         <v>41426</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1">
         <v>40848</v>
@@ -1247,27 +1471,27 @@
         <v>41426</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1">
         <v>39934</v>
@@ -1276,27 +1500,27 @@
         <v>41122</v>
       </c>
       <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1">
         <v>38899</v>
@@ -1305,60 +1529,64 @@
         <v>39234</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1367,21 +1595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1390,60 +1618,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1452,21 +1680,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="59" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>42095</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1475,60 +1776,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>13</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>42856</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1537,103 +1825,394 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B2, " ", C2, " ", D2)</f>
+        <v>Narverud I Atherosclerosis 2014</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E15" si="0">CONCATENATE(B3, " ", C3, " ", D3)</f>
+        <v>Christensen JJ J Clin Lipidol 2016</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulven SM Br J Nutr 2016</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Christensen JJ Data Brief 2017</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Christensen JJ Atherosclerosis 2017</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Christensen JJ Atherosclerosis 2017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Gjevestad OG Genes Nutr 2017</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Narverud I Tidsskr Nor Laegeforen 2017</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Telle-Hansen VH 2017</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Christensen JJ Mol Nutr Food Res 2019</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Narverud I &amp; Christensen JJ J Intern Med 2019</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulven SM Am J Clin Nutr 2019</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Christensen JJ medRxiv 2020</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Mangano KM medRxiv 2019</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:E1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N.A.">
+      <formula>NOT(ISERROR(SEARCH("N.A.",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +2221,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010032CCB1BA9365C54B9C3EB9E23C1B2633" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7f0fce0c4abc6a12f8fcbebd879d9aed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de6e283-f6b6-4558-8465-801ca1267013" xmlns:ns4="421202cc-cfcf-450e-a55d-9487af6c1599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b1ff60bc3b9a940cff1e2fac717cc3e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de6e283-f6b6-4558-8465-801ca1267013"/>
@@ -1858,36 +2452,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FDB8B3-8D01-4405-A22D-A8737F0F0A31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
-    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1910,9 +2478,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FDB8B3-8D01-4405-A22D-A8737F0F0A31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
+    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/cv-log.xlsx
+++ b/cv-log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="851" activeTab="8"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="851" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="175">
   <si>
     <t>Invited presentation</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Degree</t>
-  </si>
-  <si>
     <t>Institution</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>University education</t>
   </si>
   <si>
-    <t>Post graduate education</t>
-  </si>
-  <si>
     <t>Doctoral degree (PhD)</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
     <t>Other Positions</t>
   </si>
   <si>
-    <t>Post-doctoral researcher</t>
-  </si>
-  <si>
     <t>04/2014 - 8/2017</t>
   </si>
   <si>
@@ -439,9 +430,6 @@
     <t>Date_2</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>University</t>
   </si>
   <si>
@@ -554,6 +542,21 @@
   </si>
   <si>
     <t>Diet-derived fruit and vegetable metabolites suggest sex-specific mechanisms conferring protection against osteoporosis in humans</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Leadership course 1: Career development</t>
+  </si>
+  <si>
+    <t>01/2020-02/2020</t>
+  </si>
+  <si>
+    <t>This course aimed to create consciousness about various career paths both inside and outside academia.</t>
   </si>
 </sst>
 </file>
@@ -911,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,249 +934,265 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43862</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41730</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42948</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43282</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4">
-        <v>41730</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42948</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4">
-        <v>41456</v>
-      </c>
-      <c r="D4" s="4">
-        <v>59141</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4">
-        <v>41122</v>
-      </c>
-      <c r="D5" s="4">
-        <v>41426</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
-        <v>40756</v>
+        <v>41456</v>
       </c>
       <c r="D6" s="4">
+        <v>59141</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41122</v>
+      </c>
+      <c r="D7" s="4">
         <v>41426</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4">
-        <v>39661</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40695</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40756</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41426</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39661</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40695</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39295</v>
+      </c>
+      <c r="D10" s="4">
+        <v>39600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4">
+        <v>37469</v>
+      </c>
+      <c r="D11" s="4">
+        <v>38504</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4">
-        <v>39295</v>
-      </c>
-      <c r="D8" s="4">
-        <v>39600</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="4">
-        <v>37469</v>
-      </c>
-      <c r="D9" s="4">
-        <v>38504</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1206,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,39 +1223,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
         <v>43344</v>
@@ -1245,19 +1264,19 @@
         <v>43525</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1265,25 +1284,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>43282</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1291,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>42979</v>
@@ -1300,19 +1319,19 @@
         <v>43282</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,25 +1339,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>41456</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1346,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>41730</v>
@@ -1355,19 +1374,19 @@
         <v>42948</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1">
         <v>42614</v>
@@ -1384,19 +1403,19 @@
         <v>42675</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>2016</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1404,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>41487</v>
@@ -1413,19 +1432,19 @@
         <v>41730</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1433,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1">
         <v>40909</v>
@@ -1442,27 +1461,27 @@
         <v>41426</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1">
         <v>40848</v>
@@ -1471,27 +1490,27 @@
         <v>41426</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1">
         <v>39934</v>
@@ -1500,27 +1519,27 @@
         <v>41122</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>38899</v>
@@ -1529,19 +1548,19 @@
         <v>39234</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
         <v>102</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,13 +1589,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,20 +1615,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1673,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,16 +1683,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,31 +1754,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1735,7 +1786,7 @@
         <v>42095</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1744,16 +1795,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1793,16 +1844,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,13 +1861,13 @@
         <v>42856</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1880,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,22 +1895,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,10 +1918,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
       </c>
       <c r="D2" s="8">
         <v>2014</v>
@@ -1880,7 +1931,7 @@
         <v>Narverud I Atherosclerosis 2014</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="8">
         <v>2016</v>
@@ -1901,7 +1952,7 @@
         <v>Christensen JJ J Clin Lipidol 2016</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1909,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8">
         <v>2016</v>
@@ -1922,7 +1973,7 @@
         <v>Ulven SM Br J Nutr 2016</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,10 +1981,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D5" s="8">
         <v>2017</v>
@@ -1943,7 +1994,7 @@
         <v>Christensen JJ Data Brief 2017</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D6" s="8">
         <v>2017</v>
@@ -1964,7 +2015,7 @@
         <v>Christensen JJ Atherosclerosis 2017</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8">
         <v>2017</v>
@@ -1985,7 +2036,7 @@
         <v>Christensen JJ Atherosclerosis 2017</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,10 +2044,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8" s="8">
         <v>2017</v>
@@ -2006,7 +2057,7 @@
         <v>Gjevestad OG Genes Nutr 2017</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,10 +2065,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D9" s="8">
         <v>2017</v>
@@ -2027,7 +2078,7 @@
         <v>Narverud I Tidsskr Nor Laegeforen 2017</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,10 +2086,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" s="8">
         <v>2017</v>
@@ -2048,7 +2099,7 @@
         <v>Telle-Hansen VH 2017</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,10 +2107,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="8">
         <v>2019</v>
@@ -2069,7 +2120,7 @@
         <v>Christensen JJ Mol Nutr Food Res 2019</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D12" s="8">
         <v>2019</v>
@@ -2090,7 +2141,7 @@
         <v>Narverud I &amp; Christensen JJ J Intern Med 2019</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,10 +2149,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D13" s="8">
         <v>2019</v>
@@ -2111,7 +2162,7 @@
         <v>Ulven SM Am J Clin Nutr 2019</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D14" s="8">
         <v>2020</v>
@@ -2132,7 +2183,7 @@
         <v>Christensen JJ medRxiv 2020</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,10 +2191,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D15" s="8">
         <v>2019</v>
@@ -2153,7 +2204,7 @@
         <v>Mangano KM medRxiv 2019</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,12 +2214,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2186,18 +2237,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,12 +2284,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010032CCB1BA9365C54B9C3EB9E23C1B2633" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7f0fce0c4abc6a12f8fcbebd879d9aed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de6e283-f6b6-4558-8465-801ca1267013" xmlns:ns4="421202cc-cfcf-450e-a55d-9487af6c1599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b1ff60bc3b9a940cff1e2fac717cc3e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de6e283-f6b6-4558-8465-801ca1267013"/>
@@ -2452,6 +2500,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
   <ds:schemaRefs>
@@ -2461,23 +2515,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343284B-DAC8-4E8C-A531-8BA424A02C88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FDB8B3-8D01-4405-A22D-A8737F0F0A31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2494,4 +2531,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4343284B-DAC8-4E8C-A531-8BA424A02C88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>